--- a/Assets/Excel/Tutorials/TutorialDB_Sheet.xlsx
+++ b/Assets/Excel/Tutorials/TutorialDB_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Tutorials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75973B9-FDBC-4D7D-A2B7-32EB0DAC6CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC7845A-3F35-40C6-AB9F-F74BADD0AA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="1050" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="780" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -35,14 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>_imagePath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_nextPageID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>_tutorialType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,6 +99,12 @@
     <t>&lt;color="yellow"&gt;Stop 버튼을 눌러&lt;/color&gt; 강화를 완료하세요!
 왼쪽의 스탯창을 통해 강화된 스탯을 확인할 수 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_nextPageId</t>
+  </si>
+  <si>
+    <t>_imagePath</t>
   </si>
 </sst>
 </file>
@@ -437,7 +435,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -455,22 +453,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="115.5" x14ac:dyDescent="0.3">
@@ -478,16 +476,16 @@
         <v>60001011</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -501,16 +499,16 @@
         <v>60001012</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -524,16 +522,16 @@
         <v>60001013</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -547,16 +545,16 @@
         <v>60001014</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>

--- a/Assets/Excel/Tutorials/TutorialDB_Sheet.xlsx
+++ b/Assets/Excel/Tutorials/TutorialDB_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Tutorials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC7845A-3F35-40C6-AB9F-F74BADD0AA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0809601C-47D1-4FE4-9FF9-73293E91846A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="510" yWindow="780" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,11 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color="yellow"&gt;룬스톤 강화 기능&lt;/color&gt;는 이번 탐험동안 플레이어의 능력치에 변화를 줄 수 있습니다.
-룬스톤 강화 기회는 &lt;color="yellow"&gt;엘리트 몬스터, 보스 몬스터를 쓰러트리면&lt;/color&gt; 얻을 수 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;color="yellow"&gt;강화하고 싶은 스탯&lt;/color&gt;을 눌러 추가하세요. 스탯이 추가되면 강화 기회가 1회 소모됩니다.
 &lt;color="yellow"&gt;추가된 스탯을 눌러&lt;/color&gt; 강화할 스탯에서 제거할 수 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,6 +100,11 @@
   </si>
   <si>
     <t>_imagePath</t>
+  </si>
+  <si>
+    <t>&lt;color="yellow"&gt;룬스톤 강화 기능&lt;/color&gt;은 이번 탐험동안 플레이어의 능력치에 변화를 줄 수 있습니다.
+룬스톤 강화 기회는 &lt;color="yellow"&gt;엘리트 몬스터, 보스 몬스터를 쓰러트리면&lt;/color&gt; 얻을 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -435,7 +435,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -462,13 +462,13 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="115.5" x14ac:dyDescent="0.3">
@@ -482,7 +482,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -505,7 +505,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -528,7 +528,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -551,7 +551,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>

--- a/Assets/Excel/Tutorials/TutorialDB_Sheet.xlsx
+++ b/Assets/Excel/Tutorials/TutorialDB_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Tutorials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0809601C-47D1-4FE4-9FF9-73293E91846A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869CDCF6-B0EB-4F4A-B6F7-BD1BD90ABC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="510" yWindow="780" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +104,71 @@
   <si>
     <t>&lt;color="yellow"&gt;룬스톤 강화 기능&lt;/color&gt;은 이번 탐험동안 플레이어의 능력치에 변화를 줄 수 있습니다.
 룬스톤 강화 기회는 &lt;color="yellow"&gt;엘리트 몬스터, 보스 몬스터를 쓰러트리면&lt;/color&gt; 얻을 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inventory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리 - 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color="yellow"&gt;인벤토리&lt;/color&gt;에서는 이번 탐험동안 플레이어의 아이템들을 저장할 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리 - 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리 - 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color="yellow"&gt;마우스 우클릭&lt;/color&gt;을 통해 아이템과 상호작용이 가능합니다.
+&lt;color="red"&gt;R키&lt;/color&gt;를 통해 아이템의 회전이 가능합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color="yellow"&gt;같은 등급의 아이템 3개&lt;/color&gt;를 합쳐 다음 등급으로 &lt;color="yellow"&gt;업그레이드&lt;/color&gt;를 할 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템을 정리할 때 &lt;color="yellow"&gt;임시로 아이템을 설치&lt;/color&gt;할 수 있습니다.
+창고에 아이템이 있을 경우 다음 스테이지로 넘어가지 못하니 주의하세요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점에서는 &lt;color="yellow"&gt;무기, 장신구, 소모 아이템&lt;/color&gt;을 구매할 수 있습니다.
+새로 고침을 통해 상점의 아이템을 초기화할 수 있으나, &lt;color="yellow"&gt;골드&lt;/color&gt;에 유의해주세요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorials/Image/Inventory/Inventory_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorials/Image/Inventory/Inventory_2</t>
+  </si>
+  <si>
+    <t>Tutorials/Image/Inventory/Inventory_3</t>
+  </si>
+  <si>
+    <t>Tutorials/Image/Inventory/Storage_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorials/Image/Inventory/Store_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -560,6 +625,118 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>60002011</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>60002012</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>60002012</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>60002013</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>60002013</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>60002014</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>60002014</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>60002015</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="99" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>60002015</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Excel/Tutorials/TutorialDB_Sheet.xlsx
+++ b/Assets/Excel/Tutorials/TutorialDB_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Tutorials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869CDCF6-B0EB-4F4A-B6F7-BD1BD90ABC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86065C88-6CDC-45C5-8CD2-22F616784091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="780" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="1050" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -169,6 +169,62 @@
   </si>
   <si>
     <t>Tutorials/Image/Inventory/Store_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DungeonStart</t>
+  </si>
+  <si>
+    <t>DungeonStart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>던전 입구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorials/Image/DungeonStart/DungeonStart_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color="blue"&gt;던전&lt;/color&gt;에 오신 것을 환영합니다!
+이 곳에서는 &lt;color="yellow"&gt;캐릭터 변경, 강화, 던전 입장&lt;/color&gt;이 가능합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상호 작용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 곳에서는 &lt;color="yellow"&gt;키보드 E키&lt;/color&gt;를 통해 상호 작용이 가능합니다.
+다만, 던전 입장 시의 경우 &lt;color="red"&gt;접촉만 해도 던전 입장&lt;/color&gt;이 되니 주의해 주세요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorials/Image/DungeonStart/DungeonStart_2</t>
+  </si>
+  <si>
+    <t>Tutorials/Image/DungeonStart/DungeonStart_3</t>
+  </si>
+  <si>
+    <t>Tutorials/Image/DungeonStart/DungeonStart_4</t>
+  </si>
+  <si>
+    <t>캐릭터 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color="yellow"&gt;스크롤&lt;/color&gt;을 통해 원하는 캐릭터를 선택해 주세요.
+&lt;color="yellow"&gt;Select 버튼&lt;/color&gt;을 눌러 캐릭터 선택을 할 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임을 플레이하다 얻는 &lt;color="yellow"&gt;룬 조각&lt;/color&gt;을 통해 캐릭터를 강화할 수 있습니다.
+하단의 &lt;color="yellow"&gt;반환 버튼&lt;/color&gt;을 통해 초기화를 할 수 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -737,6 +793,95 @@
         <v>0</v>
       </c>
     </row>
+    <row r="11" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>60003011</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>60003012</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="99" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>60003012</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>60003013</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>60003013</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>60003014</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="99" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>60003014</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Excel/Tutorials/TutorialDB_Sheet.xlsx
+++ b/Assets/Excel/Tutorials/TutorialDB_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Tutorials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86065C88-6CDC-45C5-8CD2-22F616784091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB1D523-2E55-4DC8-AAAE-FF619FB77E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="1050" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -225,6 +225,22 @@
   <si>
     <t>게임을 플레이하다 얻는 &lt;color="yellow"&gt;룬 조각&lt;/color&gt;을 통해 캐릭터를 강화할 수 있습니다.
 하단의 &lt;color="yellow"&gt;반환 버튼&lt;/color&gt;을 통해 초기화를 할 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>아이템 무게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorials/Image/Inventory/ItemWeight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템들은 고유의 &lt;color="yellow"&gt;무게&lt;/color&gt;를 가지고 있습니다.
+인벤토리가 너무 무거우면 그에 따른 &lt;color="red"&gt;체력 감소&lt;/color&gt;가 있을 수 있습니다!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -553,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -790,95 +806,118 @@
         <v>35</v>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>60002016</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A11">
+        <v>60002016</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>60003011</v>
-      </c>
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>60003012</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="99" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>60003012</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>60003013</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+        <v>60003012</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="99" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>60003013</v>
+        <v>60003012</v>
       </c>
       <c r="B13" t="s">
         <v>37</v>
       </c>
       <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>60003013</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>60003013</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>44</v>
       </c>
-      <c r="F13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13">
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14">
         <v>60003014</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="99" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="15" spans="1:7" ht="99" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>60003014</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>36</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" t="s">
         <v>45</v>
       </c>
-      <c r="F14" t="b">
+      <c r="F15" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel/Tutorials/TutorialDB_Sheet.xlsx
+++ b/Assets/Excel/Tutorials/TutorialDB_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Tutorials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB1D523-2E55-4DC8-AAAE-FF619FB77E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72134BBE-A189-474E-90AB-EA46000DE807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="1050" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
   <si>
     <t>_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,11 +187,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color="blue"&gt;던전&lt;/color&gt;에 오신 것을 환영합니다!
-이 곳에서는 &lt;color="yellow"&gt;캐릭터 변경, 강화, 던전 입장&lt;/color&gt;이 가능합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상호 작용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -241,6 +236,25 @@
   <si>
     <t>아이템들은 고유의 &lt;color="yellow"&gt;무게&lt;/color&gt;를 가지고 있습니다.
 인벤토리가 너무 무거우면 그에 따른 &lt;color="red"&gt;체력 감소&lt;/color&gt;가 있을 수 있습니다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조작법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorials/Image/DungeonStart/DungeonStart_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color="red"&gt;WASD 키&lt;/color&gt;를 통해 캐릭터를 조종할 수 있습니다.
+&lt;color="red"&gt;Space 키&lt;/color&gt;를 눌러 대쉬를 할 수 있습니다.
+&lt;color="yellow"&gt;ESC 키&lt;/color&gt;를 눌러 일시 정지를 할 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color="red"&gt;던전&lt;/color&gt;에 오신 것을 환영합니다!
+이 곳에서는 &lt;color="yellow"&gt;캐릭터 변경, 강화, 던전 입장&lt;/color&gt;이 가능합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -569,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -817,16 +831,16 @@
         <v>60002016</v>
       </c>
       <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
         <v>50</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" t="s">
         <v>51</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" t="s">
-        <v>52</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -843,7 +857,7 @@
         <v>38</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s">
         <v>39</v>
@@ -860,16 +874,16 @@
         <v>60003012</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
@@ -878,7 +892,7 @@
         <v>60003013</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="99" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>60003013</v>
       </c>
@@ -886,13 +900,13 @@
         <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -901,23 +915,46 @@
         <v>60003014</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="99" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>60003014</v>
       </c>
       <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>60003015</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="99" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>60003015</v>
+      </c>
+      <c r="B16" t="s">
         <v>36</v>
       </c>
-      <c r="C15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" t="b">
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel/Tutorials/TutorialDB_Sheet.xlsx
+++ b/Assets/Excel/Tutorials/TutorialDB_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Tutorials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72134BBE-A189-474E-90AB-EA46000DE807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D10442-66BE-4F12-AC40-534AB1357BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
   <si>
     <t>_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -255,6 +255,19 @@
   <si>
     <t>&lt;color="red"&gt;던전&lt;/color&gt;에 오신 것을 환영합니다!
 이 곳에서는 &lt;color="yellow"&gt;캐릭터 변경, 강화, 던전 입장&lt;/color&gt;이 가능합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 몬스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color="yellow"&gt;매 5의 배수 스테이지&lt;/color&gt;에서는 &lt;color="red&gt;보스 몬스터&lt;/color&gt;가 등장합니다.
+해당 보스 몬스터를 &lt;color="red&gt;잡지 못하면 게임 종료&lt;/color&gt;되니 주의해 주세요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorials/Image/DungeonStart/DungeonStart_6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -583,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -955,6 +968,29 @@
         <v>44</v>
       </c>
       <c r="F16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>60003016</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="99" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>60003016</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel/Tutorials/TutorialDB_Sheet.xlsx
+++ b/Assets/Excel/Tutorials/TutorialDB_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Tutorials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SpartaCoding\Sisyphus\Assets\Excel\Tutorials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D10442-66BE-4F12-AC40-534AB1357BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24D7399-8397-4FBA-9B6C-FC8DB553277D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2955" yWindow="0" windowWidth="25305" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -144,11 +144,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아이템을 정리할 때 &lt;color="yellow"&gt;임시로 아이템을 설치&lt;/color&gt;할 수 있습니다.
-창고에 아이템이 있을 경우 다음 스테이지로 넘어가지 못하니 주의하세요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상점에서는 &lt;color="yellow"&gt;무기, 장신구, 소모 아이템&lt;/color&gt;을 구매할 수 있습니다.
 새로 고침을 통해 상점의 아이템을 초기화할 수 있으나, &lt;color="yellow"&gt;골드&lt;/color&gt;에 유의해주세요!</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -268,6 +263,11 @@
   </si>
   <si>
     <t>Tutorials/Image/DungeonStart/DungeonStart_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템을 정리할 때 &lt;color="yellow"&gt;임시로 아이템을 설치&lt;/color&gt;할 수 있습니다.
+창고에 있는 아이템은 던전에 반영되지 않고 오른쪽에 설치 제한 횟수가 표기됩니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -598,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -738,7 +738,7 @@
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -761,7 +761,7 @@
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -784,7 +784,7 @@
         <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -793,7 +793,7 @@
         <v>60002014</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="99" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>60002014</v>
       </c>
@@ -804,10 +804,10 @@
         <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -827,10 +827,10 @@
         <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -844,16 +844,16 @@
         <v>60002016</v>
       </c>
       <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
         <v>49</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
         <v>50</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" t="s">
-        <v>51</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>60003011</v>
       </c>
       <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
         <v>37</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
         <v>38</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" t="s">
-        <v>39</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -887,16 +887,16 @@
         <v>60003012</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" t="s">
         <v>53</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" t="s">
-        <v>54</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
@@ -910,16 +910,16 @@
         <v>60003013</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" t="s">
         <v>41</v>
-      </c>
-      <c r="E14" t="s">
-        <v>42</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>60003014</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
@@ -956,16 +956,16 @@
         <v>60003015</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
@@ -979,16 +979,16 @@
         <v>60003016</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" t="s">
         <v>58</v>
-      </c>
-      <c r="E17" t="s">
-        <v>59</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>

--- a/Assets/Excel/Tutorials/TutorialDB_Sheet.xlsx
+++ b/Assets/Excel/Tutorials/TutorialDB_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SpartaCoding\Sisyphus\Assets\Excel\Tutorials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Tutorials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24D7399-8397-4FBA-9B6C-FC8DB553277D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1EC35C-38B8-481A-B58E-FFF24E71D773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2955" yWindow="0" windowWidth="25305" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="1005" windowWidth="37440" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
   <si>
     <t>_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,19 +61,6 @@
   <si>
     <t>_tutorialName</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>룬스톤 강화 - 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>룬스톤 강화 - 2</t>
-  </si>
-  <si>
-    <t>룬스톤 강화 - 3</t>
-  </si>
-  <si>
-    <t>룬스톤 강화 - 4</t>
   </si>
   <si>
     <t>RuneStone</t>
@@ -123,10 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>인벤토리 - 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상점</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -140,10 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color="yellow"&gt;같은 등급의 아이템 3개&lt;/color&gt;를 합쳐 다음 등급으로 &lt;color="yellow"&gt;업그레이드&lt;/color&gt;를 할 수 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상점에서는 &lt;color="yellow"&gt;무기, 장신구, 소모 아이템&lt;/color&gt;을 구매할 수 있습니다.
 새로 고침을 통해 상점의 아이템을 초기화할 수 있으나, &lt;color="yellow"&gt;골드&lt;/color&gt;에 유의해주세요!</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -156,13 +135,6 @@
     <t>Tutorials/Image/Inventory/Inventory_2</t>
   </si>
   <si>
-    <t>Tutorials/Image/Inventory/Inventory_3</t>
-  </si>
-  <si>
-    <t>Tutorials/Image/Inventory/Storage_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Tutorials/Image/Inventory/Store_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -208,11 +180,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color="yellow"&gt;스크롤&lt;/color&gt;을 통해 원하는 캐릭터를 선택해 주세요.
-&lt;color="yellow"&gt;Select 버튼&lt;/color&gt;을 눌러 캐릭터 선택을 할 수 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>게임을 플레이하다 얻는 &lt;color="yellow"&gt;룬 조각&lt;/color&gt;을 통해 캐릭터를 강화할 수 있습니다.
 하단의 &lt;color="yellow"&gt;반환 버튼&lt;/color&gt;을 통해 초기화를 할 수 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -229,22 +196,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아이템들은 고유의 &lt;color="yellow"&gt;무게&lt;/color&gt;를 가지고 있습니다.
-인벤토리가 너무 무거우면 그에 따른 &lt;color="red"&gt;체력 감소&lt;/color&gt;가 있을 수 있습니다!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>조작법</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Tutorials/Image/DungeonStart/DungeonStart_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color="red"&gt;WASD 키&lt;/color&gt;를 통해 캐릭터를 조종할 수 있습니다.
-&lt;color="red"&gt;Space 키&lt;/color&gt;를 눌러 대쉬를 할 수 있습니다.
-&lt;color="yellow"&gt;ESC 키&lt;/color&gt;를 눌러 일시 정지를 할 수 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -257,17 +213,81 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color="yellow"&gt;매 5의 배수 스테이지&lt;/color&gt;에서는 &lt;color="red&gt;보스 몬스터&lt;/color&gt;가 등장합니다.
-해당 보스 몬스터를 &lt;color="red&gt;잡지 못하면 게임 종료&lt;/color&gt;되니 주의해 주세요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Tutorials/Image/DungeonStart/DungeonStart_6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>아이템을 정리할 때 &lt;color="yellow"&gt;임시로 아이템을 설치&lt;/color&gt;할 수 있습니다.
 창고에 있는 아이템은 던전에 반영되지 않고 오른쪽에 설치 제한 횟수가 표기됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대장간 - 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대장간 - 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대장간 - 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대장간 - 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color="yellow"&gt;장착 아이템의 등급&lt;/color&gt;에는 노말, 레어, 유니크 등급이 있습니다.
+&lt;color="yellow"&gt;무기의 아이템 등급&lt;/color&gt;에는 노말, 레어, 유니크, 에픽 등급이 있습니다.
+등급은 &lt;color="red"&gt;같은 아이템을 3개&lt;/color&gt; 합치는 것으로 올릴 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 - 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 - 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color="yellow"&gt;소모 아이템&lt;/color&gt;에는 턴 제약이 있는 경우가 있습니다.
+&lt;color="yellow"&gt;아이템의 설명란&lt;/color&gt;에서 정보를 확인할 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color="red"&gt;아이템의 무게&lt;/color&gt;에 주의하세요!
+무게가 무거워질수록 &lt;color="red"&gt;최대 체력과 이동 속도가 감소&lt;/color&gt;하게 됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorials/Image/Inventory/Storage_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>던전에서는 매 &lt;color="yellow"&gt;5 스테이지&lt;/color&gt; &lt;color="red&gt;마다 보스 몬스터&lt;/color&gt;가 등장합니다.
+해당 보스 몬스터를 &lt;color="red&gt;잡지 못하면 게임 종료&lt;/color&gt;되니 주의해 주세요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorials/Image/Inventory/Inventory_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorials/Image/Inventory/Item_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color="red"&gt;WASD 키&lt;/color&gt;를 통해 캐릭터를 조종할 수 있습니다.
+&lt;color="red"&gt;Space 키 또는 Shift 키&lt;/color&gt;를 눌러 대쉬를 할 수 있습니다.
+&lt;color="yellow"&gt;ESC 키&lt;/color&gt;를 눌러 일시 정지를 할 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 마다&lt;color="red"&gt;시작 무기와 스킬&lt;/color&gt;이 다릅니다.
+원하는 캐릭터를 선택해 주세요.
+&lt;color="yellow"&gt;Select 버튼&lt;/color&gt;을 눌러 캐릭터 선택을 할 수 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -596,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -626,13 +646,13 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="115.5" x14ac:dyDescent="0.3">
@@ -640,13 +660,13 @@
         <v>60001011</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -663,13 +683,13 @@
         <v>60001012</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -686,13 +706,13 @@
         <v>60001013</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -709,13 +729,13 @@
         <v>60001014</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -729,16 +749,16 @@
         <v>60002011</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -752,16 +772,16 @@
         <v>60002012</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -770,21 +790,21 @@
         <v>60002013</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>60002013</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -798,16 +818,16 @@
         <v>60002014</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -821,16 +841,16 @@
         <v>60002015</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -839,158 +859,181 @@
         <v>60002016</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="99" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>60002016</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>60002017</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>60003011</v>
+        <v>60002017</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>60003012</v>
+        <v>60002018</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="99" x14ac:dyDescent="0.3">
       <c r="A13">
+        <v>60002018</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>60003011</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14">
         <v>60003012</v>
       </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13">
+    </row>
+    <row r="15" spans="1:7" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>60003012</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15">
         <v>60003013</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="99" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>60003013</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>60003014</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>60003014</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>60003015</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="99" x14ac:dyDescent="0.3">
       <c r="A16">
+        <v>60003013</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>60003014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="99" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>60003014</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17">
         <v>60003015</v>
       </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="18" spans="1:7" ht="99" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>60003015</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" t="s">
         <v>35</v>
       </c>
-      <c r="C16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>60003016</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="99" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>60003016</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" t="b">
+      <c r="F18" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel/Tutorials/TutorialDB_Sheet.xlsx
+++ b/Assets/Excel/Tutorials/TutorialDB_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Tutorials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1EC35C-38B8-481A-B58E-FFF24E71D773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D20B2A-70A4-4C7C-9446-808D5F39EC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="1005" windowWidth="37440" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -89,11 +89,6 @@
     <t>_imagePath</t>
   </si>
   <si>
-    <t>&lt;color="yellow"&gt;룬스톤 강화 기능&lt;/color&gt;은 이번 탐험동안 플레이어의 능력치에 변화를 줄 수 있습니다.
-룬스톤 강화 기회는 &lt;color="yellow"&gt;엘리트 몬스터, 보스 몬스터를 쓰러트리면&lt;/color&gt; 얻을 수 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Inventory</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -288,6 +283,11 @@
     <t>캐릭터 마다&lt;color="red"&gt;시작 무기와 스킬&lt;/color&gt;이 다릅니다.
 원하는 캐릭터를 선택해 주세요.
 &lt;color="yellow"&gt;Select 버튼&lt;/color&gt;을 눌러 캐릭터 선택을 할 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color="yellow"&gt;룬스톤 강화 기능&lt;/color&gt;은 &lt;color="red"&gt;이번 탐험&lt;/color&gt;동안 플레이어의 능력치에 변화를 줄 수 있습니다.
+룬스톤 강화 기회는 &lt;color="yellow"&gt;엘리트 몬스터, 보스 몬스터를 쓰러트리면&lt;/color&gt; 얻을 수 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -618,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -655,7 +655,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="132" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>60001011</v>
       </c>
@@ -663,10 +663,10 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -686,7 +686,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
@@ -709,7 +709,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
@@ -732,7 +732,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>12</v>
@@ -749,16 +749,16 @@
         <v>60002011</v>
       </c>
       <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -772,16 +772,16 @@
         <v>60002012</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -795,16 +795,16 @@
         <v>60002013</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -818,16 +818,16 @@
         <v>60002014</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -841,16 +841,16 @@
         <v>60002015</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -864,16 +864,16 @@
         <v>60002016</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
@@ -887,16 +887,16 @@
         <v>60002017</v>
       </c>
       <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
         <v>39</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
         <v>40</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" t="s">
-        <v>41</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -910,16 +910,16 @@
         <v>60002018</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" t="s">
         <v>45</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" t="s">
-        <v>46</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -930,16 +930,16 @@
         <v>60003011</v>
       </c>
       <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
         <v>28</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s">
         <v>29</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" t="s">
-        <v>30</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -953,16 +953,16 @@
         <v>60003012</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" t="s">
         <v>42</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" t="s">
-        <v>43</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
@@ -976,16 +976,16 @@
         <v>60003013</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" t="s">
         <v>32</v>
-      </c>
-      <c r="E16" t="s">
-        <v>33</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
@@ -999,16 +999,16 @@
         <v>60003014</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
@@ -1022,16 +1022,16 @@
         <v>60003015</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>

--- a/Assets/Excel/Tutorials/TutorialDB_Sheet.xlsx
+++ b/Assets/Excel/Tutorials/TutorialDB_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Tutorials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D20B2A-70A4-4C7C-9446-808D5F39EC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6650AAD-35B1-4FA8-AE88-7BD89B34A12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="1005" windowWidth="37440" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -233,12 +233,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color="yellow"&gt;장착 아이템의 등급&lt;/color&gt;에는 노말, 레어, 유니크 등급이 있습니다.
-&lt;color="yellow"&gt;무기의 아이템 등급&lt;/color&gt;에는 노말, 레어, 유니크, 에픽 등급이 있습니다.
-등급은 &lt;color="red"&gt;같은 아이템을 3개&lt;/color&gt; 합치는 것으로 올릴 수 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아이템 - 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -288,6 +282,12 @@
   <si>
     <t>&lt;color="yellow"&gt;룬스톤 강화 기능&lt;/color&gt;은 &lt;color="red"&gt;이번 탐험&lt;/color&gt;동안 플레이어의 능력치에 변화를 줄 수 있습니다.
 룬스톤 강화 기회는 &lt;color="yellow"&gt;엘리트 몬스터, 보스 몬스터를 쓰러트리면&lt;/color&gt; 얻을 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템은 &lt;color="yellow"&gt;무기, 장신구, 소모 아이템&lt;/color&gt;으로 나뉘어 집니다.
+&lt;color="yellow"&gt;무기의 아이템 등급&lt;/color&gt;에는 노말, 레어, 유니크, 에픽 등급이 있습니다.
+등급은 &lt;color="red"&gt;같은 아이템을 3개&lt;/color&gt; 합치는 것으로 올릴 수 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -618,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -666,7 +666,7 @@
         <v>47</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -798,13 +798,13 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -821,13 +821,13 @@
         <v>38</v>
       </c>
       <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -850,7 +850,7 @@
         <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -893,7 +893,7 @@
         <v>39</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
         <v>40</v>
@@ -916,7 +916,7 @@
         <v>44</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
         <v>45</v>
@@ -959,7 +959,7 @@
         <v>41</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
         <v>42</v>
@@ -1005,7 +1005,7 @@
         <v>35</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
         <v>33</v>

--- a/Assets/Excel/Tutorials/TutorialDB_Sheet.xlsx
+++ b/Assets/Excel/Tutorials/TutorialDB_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Tutorials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6650AAD-35B1-4FA8-AE88-7BD89B34A12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F66AA51-1B61-431F-86A3-B72B680B41FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="1005" windowWidth="37440" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="69">
   <si>
     <t>_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -288,6 +288,31 @@
     <t>아이템은 &lt;color="yellow"&gt;무기, 장신구, 소모 아이템&lt;/color&gt;으로 나뉘어 집니다.
 &lt;color="yellow"&gt;무기의 아이템 등급&lt;/color&gt;에는 노말, 레어, 유니크, 에픽 등급이 있습니다.
 등급은 &lt;color="red"&gt;같은 아이템을 3개&lt;/color&gt; 합치는 것으로 올릴 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 조작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>던전에서는 &lt;color="yellow"&gt;WASD 키 또는 화살표 키&lt;/color&gt;를 통해 캐릭터를 조작할 수 있습니다.
+&lt;color="yellow"&gt;Space키 또는 Shift키&lt;/color&gt;를 통해 대시를 할 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 캐릭터에게는 &lt;color="yellow"&gt;전용 스킬&lt;/color&gt;이 있습니다. 스킬을 &lt;color="red"&gt;R키&lt;/color&gt;를 눌러 사용하실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorials/Image/Inventory/Character_Skill_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorials/Image/Inventory/Character_Move_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -616,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -910,130 +935,176 @@
         <v>60002018</v>
       </c>
       <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>60002019</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>60002019</v>
+      </c>
+      <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>60002020</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="99" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>60002020</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E15" t="s">
         <v>45</v>
       </c>
-      <c r="F13" t="b">
+      <c r="F15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="16" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>60003011</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>60003012</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>60003012</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>60003013</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="99" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>60003013</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>60003014</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="99" x14ac:dyDescent="0.3">
+        <v>60003012</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>60003014</v>
+        <v>60003012</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>60003015</v>
+        <v>60003013</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="99" x14ac:dyDescent="0.3">
       <c r="A18">
+        <v>60003013</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>60003014</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="99" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>60003014</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19">
         <v>60003015</v>
       </c>
-      <c r="B18" t="s">
+    </row>
+    <row r="20" spans="1:7" ht="99" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>60003015</v>
+      </c>
+      <c r="B20" t="s">
         <v>26</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C20" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E20" t="s">
         <v>34</v>
       </c>
-      <c r="F18" t="b">
+      <c r="F20" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel/Tutorials/TutorialDB_Sheet.xlsx
+++ b/Assets/Excel/Tutorials/TutorialDB_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Tutorials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F66AA51-1B61-431F-86A3-B72B680B41FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB47B79E-0ADA-468B-915E-55415CD2C291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="1005" windowWidth="37440" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="37440" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -304,15 +304,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>각 캐릭터에게는 &lt;color="yellow"&gt;전용 스킬&lt;/color&gt;이 있습니다. 스킬을 &lt;color="red"&gt;R키&lt;/color&gt;를 눌러 사용하실 수 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Tutorials/Image/Inventory/Character_Skill_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Tutorials/Image/Inventory/Character_Move_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 캐릭터에게는 &lt;color="yellow"&gt;전용 스킬&lt;/color&gt;이 있습니다. 스킬을 &lt;color="red"&gt;Q키&lt;/color&gt;를 눌러 사용하실 수 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -644,7 +644,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -944,7 +944,7 @@
         <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
@@ -964,10 +964,10 @@
         <v>65</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" t="s">
         <v>66</v>
-      </c>
-      <c r="E14" t="s">
-        <v>67</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>

--- a/Assets/Excel/Tutorials/TutorialDB_Sheet.xlsx
+++ b/Assets/Excel/Tutorials/TutorialDB_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Tutorials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB47B79E-0ADA-468B-915E-55415CD2C291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DBE851-ABC2-4A74-A534-37B3153C42D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="37440" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="75">
   <si>
     <t>_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -314,6 +314,30 @@
   <si>
     <t>각 캐릭터에게는 &lt;color="yellow"&gt;전용 스킬&lt;/color&gt;이 있습니다. 스킬을 &lt;color="red"&gt;Q키&lt;/color&gt;를 눌러 사용하실 수 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업적 - 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 곳에서는 &lt;color="yellow"&gt;업적&lt;/color&gt;을 확인하실 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업적 - 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color="yellow"&gt;일일 임무 또는 업적&lt;/color&gt;을 완료하실 경우, 보상으로 룬 스톤을 획득하실 수 있습니다.
+일일 임무는 &lt;color="yellow"&gt;매일 자정에 초기화&lt;/color&gt;가 됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorials/Image/DungeonStart/Quest_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorials/Image/DungeonStart/Quest_2</t>
   </si>
 </sst>
 </file>
@@ -641,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1105,6 +1129,52 @@
         <v>34</v>
       </c>
       <c r="F20" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>60003016</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>60003016</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>60003017</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>60003017</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel/Tutorials/TutorialDB_Sheet.xlsx
+++ b/Assets/Excel/Tutorials/TutorialDB_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Tutorials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DBE851-ABC2-4A74-A534-37B3153C42D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868B860B-457F-43A0-B853-239C69201975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="78">
   <si>
     <t>_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,17 +158,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tutorials/Image/DungeonStart/DungeonStart_2</t>
-  </si>
-  <si>
     <t>Tutorials/Image/DungeonStart/DungeonStart_3</t>
   </si>
   <si>
     <t>Tutorials/Image/DungeonStart/DungeonStart_4</t>
-  </si>
-  <si>
-    <t>캐릭터 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>캐릭터 강화</t>
@@ -338,6 +331,27 @@
   </si>
   <si>
     <t>Tutorials/Image/DungeonStart/Quest_2</t>
+  </si>
+  <si>
+    <t>캐릭터 선택 - 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 선택 - 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>던전 입장 전에 &lt;color="red"&gt;반드시 캐릭터 선택&lt;/color&gt;을 진행해 주세요.
+맨몸으로 던전에 입장하는 것은 위험합니다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorials/Image/DungeonStart/DungeonStart_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorials/Image/DungeonStart/Character_Select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -665,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -712,10 +726,10 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -735,7 +749,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
@@ -758,7 +772,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
@@ -781,7 +795,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>12</v>
@@ -847,13 +861,13 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -867,16 +881,16 @@
         <v>60002014</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -896,10 +910,10 @@
         <v>20</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -936,16 +950,16 @@
         <v>60002017</v>
       </c>
       <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s">
         <v>38</v>
-      </c>
-      <c r="C12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" t="s">
-        <v>40</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -959,16 +973,16 @@
         <v>60002018</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
@@ -985,13 +999,13 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -1008,13 +1022,13 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -1031,7 +1045,7 @@
         <v>28</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
         <v>29</v>
@@ -1051,13 +1065,13 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
@@ -1080,7 +1094,7 @@
         <v>31</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
@@ -1089,7 +1103,7 @@
         <v>60003014</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="99" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>60003014</v>
       </c>
@@ -1097,13 +1111,13 @@
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
@@ -1117,16 +1131,16 @@
         <v>60003015</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
@@ -1135,21 +1149,21 @@
         <v>60003016</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="99" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>60003016</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="E21" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
@@ -1158,7 +1172,7 @@
         <v>60003017</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>60003017</v>
       </c>
@@ -1166,15 +1180,38 @@
         <v>27</v>
       </c>
       <c r="C22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>60003018</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>60003018</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" t="s">
         <v>72</v>
       </c>
-      <c r="E22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F22" t="b">
+      <c r="F23" t="b">
         <v>0</v>
       </c>
     </row>
